--- a/environhub/alappadmining.xlsx
+++ b/environhub/alappadmining.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9875" tabRatio="500" activeTab="5"/>
+    <workbookView windowWidth="22943" windowHeight="9467" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242">
   <si>
     <t>Summary</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Alappad Village, once spread over 89 sq km between the TS Canal and Arabian Sea, has dwindled to just 7.6 sq km in 60 years primarily due to mining, but as it continues unabated, the local people fear they would lose their last piece of land soon. The residents of Alappad, located 10 km north of Kollam, assemble at a makeshift protest venue near the village office every day to carry out a relay hunger strike started by ‘Karimanal Khananavirudha Janakeeya Samarasamithi’ on November 1 last year against mining.</t>
     </r>
     <r>
@@ -46,19 +51,22 @@
     </r>
   </si>
   <si>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>Event Description</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Event Type</t>
-  </si>
-  <si>
-    <t>Event Description</t>
-  </si>
-  <si>
     <t>court judgement</t>
   </si>
   <si>
     <t>The High Court of Kerala today sought the response of Kerala Government and Indian Rare Earths Ltd (IREL) in a petition filed against mining activities in the coastal village of Alappad. The petition filed K M Hussain, a resident of Alappad, states that large scale sand mining of by Indian Rare Earths Ltd(IREL) will lead to the submergence of the village due to sea erosion.</t>
+  </si>
+  <si>
+    <t>15/1/2019</t>
   </si>
   <si>
     <t>Name</t>
@@ -769,10 +777,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -807,6 +815,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -822,38 +890,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,10 +920,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -892,7 +936,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,42 +944,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -957,6 +965,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -969,7 +995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,13 +1007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,19 +1019,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,19 +1079,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,24 +1139,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1120,24 +1146,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,6 +1170,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1173,6 +1190,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,6 +1218,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1203,15 +1238,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,36 +1256,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,128 +1277,128 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1774,13 +1782,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="11.5740740740741"/>
     <col min="3" max="3" width="23.1388888888889" customWidth="1"/>
@@ -1798,19 +1806,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="198" spans="1:3">
-      <c r="A2" s="7">
-        <v>43480</v>
+    <row r="2" ht="409.5" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="1"/>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1"/>
@@ -1844,35 +1853,35 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="81.6" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="132" spans="1:3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -1907,15 +1916,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -1923,7 +1932,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>14</v>
@@ -1931,7 +1940,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1939,7 +1948,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1947,7 +1956,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1955,7 +1964,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1963,7 +1972,7 @@
     </row>
     <row r="8" ht="26.4" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1971,7 +1980,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1979,7 +1988,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1987,7 +1996,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1995,7 +2004,7 @@
     </row>
     <row r="12" ht="26.4" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2003,7 +2012,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -2011,7 +2020,7 @@
     </row>
     <row r="14" ht="26.4" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -2019,7 +2028,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -2027,7 +2036,7 @@
     </row>
     <row r="16" ht="26.4" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -2035,7 +2044,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -2043,7 +2052,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -2051,7 +2060,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -2059,7 +2068,7 @@
     </row>
     <row r="20" ht="39.6" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -2067,7 +2076,7 @@
     </row>
     <row r="21" ht="26.4" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -2075,7 +2084,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -2083,7 +2092,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -2091,7 +2100,7 @@
     </row>
     <row r="24" ht="26.4" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -2099,7 +2108,7 @@
     </row>
     <row r="25" ht="26.4" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -2107,7 +2116,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -2115,7 +2124,7 @@
     </row>
     <row r="27" ht="26.4" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -2123,7 +2132,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -2131,7 +2140,7 @@
     </row>
     <row r="29" ht="26.4" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -2139,7 +2148,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -2147,7 +2156,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -2155,7 +2164,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -2163,7 +2172,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -2171,7 +2180,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -2179,7 +2188,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -2187,7 +2196,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -2195,7 +2204,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -2227,15 +2236,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2243,7 +2252,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2251,7 +2260,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2259,7 +2268,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2267,7 +2276,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2275,7 +2284,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2283,7 +2292,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2291,7 +2300,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2299,7 +2308,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2307,7 +2316,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2315,7 +2324,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2323,7 +2332,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2331,7 +2340,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2339,7 +2348,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2347,7 +2356,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2355,7 +2364,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2363,7 +2372,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2371,7 +2380,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2379,7 +2388,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2387,7 +2396,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2395,7 +2404,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2403,7 +2412,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2411,7 +2420,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2419,7 +2428,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2427,7 +2436,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2435,7 +2444,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2443,7 +2452,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2451,7 +2460,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2459,7 +2468,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2467,7 +2476,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2475,7 +2484,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2483,7 +2492,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2491,7 +2500,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2499,7 +2508,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2507,7 +2516,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2515,7 +2524,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2523,7 +2532,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2531,7 +2540,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2539,7 +2548,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2547,7 +2556,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2555,7 +2564,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2563,7 +2572,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2571,7 +2580,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2579,7 +2588,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2587,7 +2596,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2595,7 +2604,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2603,7 +2612,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2611,7 +2620,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2619,7 +2628,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2627,7 +2636,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2635,7 +2644,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2643,7 +2652,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2651,7 +2660,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2659,7 +2668,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -2667,7 +2676,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2675,7 +2684,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2683,7 +2692,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2691,7 +2700,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2699,7 +2708,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2707,7 +2716,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2715,7 +2724,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2723,7 +2732,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2731,7 +2740,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2739,7 +2748,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2747,7 +2756,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2755,7 +2764,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2763,7 +2772,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2771,7 +2780,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2779,7 +2788,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2787,7 +2796,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2795,7 +2804,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2803,7 +2812,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2811,7 +2820,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2819,7 +2828,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2827,7 +2836,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2835,7 +2844,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2843,7 +2852,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2851,7 +2860,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2859,7 +2868,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2867,7 +2876,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2875,7 +2884,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2883,7 +2892,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2891,7 +2900,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -2899,7 +2908,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2907,7 +2916,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2915,7 +2924,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2923,7 +2932,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2931,7 +2940,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2939,7 +2948,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2947,7 +2956,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2955,7 +2964,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -2963,7 +2972,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2971,7 +2980,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2979,7 +2988,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2987,7 +2996,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2995,7 +3004,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3003,7 +3012,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3011,7 +3020,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3019,7 +3028,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3027,7 +3036,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3035,7 +3044,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -3043,7 +3052,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3051,7 +3060,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3059,7 +3068,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -3067,7 +3076,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -3075,7 +3084,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -3083,7 +3092,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -3091,7 +3100,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -3099,7 +3108,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -3107,7 +3116,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3115,7 +3124,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3123,7 +3132,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -3131,7 +3140,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -3139,7 +3148,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -3147,7 +3156,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -3155,7 +3164,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -3163,7 +3172,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -3171,7 +3180,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -3179,7 +3188,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3187,7 +3196,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3195,7 +3204,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3203,7 +3212,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3211,7 +3220,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -3219,7 +3228,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3227,7 +3236,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3235,7 +3244,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3243,7 +3252,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3251,7 +3260,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3259,7 +3268,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3267,7 +3276,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3275,7 +3284,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3283,7 +3292,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -3291,7 +3300,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -3299,7 +3308,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3307,7 +3316,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3315,7 +3324,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3323,7 +3332,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -3331,7 +3340,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3339,7 +3348,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -3347,7 +3356,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3355,7 +3364,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -3363,7 +3372,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3371,7 +3380,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3379,7 +3388,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3387,7 +3396,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -3395,7 +3404,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -3403,7 +3412,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3411,7 +3420,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3419,7 +3428,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3427,7 +3436,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3435,7 +3444,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3443,7 +3452,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3451,7 +3460,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3459,7 +3468,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3467,7 +3476,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3475,7 +3484,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3483,7 +3492,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -3491,7 +3500,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3499,7 +3508,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3507,7 +3516,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -3515,7 +3524,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -3523,7 +3532,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3531,7 +3540,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -3539,7 +3548,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3547,7 +3556,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -3555,7 +3564,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3563,7 +3572,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -3571,7 +3580,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3579,7 +3588,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3587,7 +3596,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -3595,7 +3604,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3603,7 +3612,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3611,7 +3620,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -3619,7 +3628,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3627,7 +3636,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -3635,7 +3644,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3643,7 +3652,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3651,7 +3660,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3659,7 +3668,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3667,7 +3676,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -3675,7 +3684,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B182">
         <v>100</v>
@@ -3683,7 +3692,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B183">
         <v>6</v>
@@ -3691,7 +3700,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -3699,7 +3708,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3720,7 +3729,7 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3731,17 +3740,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" ht="118.8" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" ht="105.6" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
